--- a/Data_file/import_product_PO.xlsx
+++ b/Data_file/import_product_PO.xlsx
@@ -100,7 +100,7 @@
     <t>Google Workspace Business Standard 10 User (สัญญา 12เดือน) (14กุมภาพันธ์ 2025-14กุมภาพันธ์ 2026)</t>
   </si>
   <si>
-    <t>เดือน</t>
+    <t>Months</t>
   </si>
   <si>
     <t>116102-06</t>
